--- a/opt2-parallel/result_opt2.xlsx
+++ b/opt2-parallel/result_opt2.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="result_time" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -626,14 +626,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="34925568"/>
-        <c:axId val="35787520"/>
+        <c:axId val="87444480"/>
+        <c:axId val="87483520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34925568"/>
+        <c:axId val="87444480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,14 +659,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35787520"/>
+        <c:crossAx val="87483520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35787520"/>
+        <c:axId val="87483520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +696,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34925568"/>
+        <c:crossAx val="87444480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -710,7 +709,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -779,14 +778,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="94343168"/>
-        <c:axId val="94344704"/>
+        <c:axId val="87312256"/>
+        <c:axId val="87322624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94343168"/>
+        <c:axId val="87312256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,14 +811,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94344704"/>
+        <c:crossAx val="87322624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94344704"/>
+        <c:axId val="87322624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +848,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94343168"/>
+        <c:crossAx val="87312256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -863,7 +861,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
